--- a/data/trans_orig/IP21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B181DD4-20C6-4197-B0ED-F6619CE5EE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4FE15D-8D26-47D9-A1E1-9BCE235BA64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{58DE405B-4DD5-4FD6-85CE-FDE0A19DC64F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{412D9D52-456F-45AC-8E13-2DCF803B19D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>95,41%</t>
   </si>
   <si>
@@ -353,6 +353,54 @@
     <t>5,49%</t>
   </si>
   <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>97,09%</t>
   </si>
   <si>
@@ -407,54 +455,6 @@
     <t>3,41%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
     <t>95,57%</t>
   </si>
   <si>
@@ -548,6 +548,60 @@
     <t>3,25%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>96,36%</t>
   </si>
   <si>
@@ -596,60 +650,6 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>97,22%</t>
   </si>
   <si>
@@ -737,6 +737,48 @@
     <t>4,27%</t>
   </si>
   <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>96,73%</t>
   </si>
   <si>
@@ -777,48 +819,6 @@
   </si>
   <si>
     <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14432F34-1743-4FA8-81D2-193E0B0B7ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65213A39-2D5A-41D2-9039-4AC2051223C1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="D7" s="7">
-        <v>276670</v>
+        <v>210702</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1540,10 +1540,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="I7" s="7">
-        <v>263063</v>
+        <v>200674</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1555,10 +1555,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>805</v>
+        <v>616</v>
       </c>
       <c r="N7" s="7">
-        <v>539733</v>
+        <v>411376</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1576,10 +1576,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>4828</v>
+        <v>7339</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1591,10 +1591,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2540</v>
+        <v>4548</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1606,10 +1606,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>7368</v>
+        <v>11887</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1627,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1642,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="D10" s="7">
-        <v>210702</v>
+        <v>276670</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1695,10 +1695,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="I10" s="7">
-        <v>200674</v>
+        <v>263063</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1710,10 +1710,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>805</v>
       </c>
       <c r="N10" s="7">
-        <v>411376</v>
+        <v>539733</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1731,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>7339</v>
+        <v>4828</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1746,10 +1746,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4548</v>
+        <v>2540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1761,10 +1761,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>11887</v>
+        <v>7368</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1782,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1797,10 +1797,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1812,10 +1812,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30340777-E958-4261-9A3A-219DE5646717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0D8A0-201D-41C7-B778-8DBB8AB8D79E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2271,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="D7" s="7">
-        <v>263117</v>
+        <v>231928</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2283,37 +2283,37 @@
         <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="7">
+        <v>310</v>
+      </c>
+      <c r="I7" s="7">
+        <v>222133</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="7">
-        <v>360</v>
-      </c>
-      <c r="I7" s="7">
-        <v>253053</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>631</v>
+      </c>
+      <c r="N7" s="7">
+        <v>454061</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="7">
-        <v>748</v>
-      </c>
-      <c r="N7" s="7">
-        <v>516171</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2322,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10063</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>7897</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>7339</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3358</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>17402</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="7">
-        <v>16</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11254</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>271014</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2388,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2403,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>764</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>527425</v>
+        <v>471463</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2426,49 +2426,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="D10" s="7">
-        <v>231928</v>
+        <v>263117</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>360</v>
+      </c>
+      <c r="I10" s="7">
+        <v>253053</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>310</v>
-      </c>
-      <c r="I10" s="7">
-        <v>222133</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>748</v>
+      </c>
+      <c r="N10" s="7">
+        <v>516171</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="7">
-        <v>631</v>
-      </c>
-      <c r="N10" s="7">
-        <v>454061</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,25 +2477,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>10063</v>
+        <v>7897</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>7339</v>
+        <v>3358</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>132</v>
@@ -2507,10 +2507,10 @@
         <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>17402</v>
+        <v>11254</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2528,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>271014</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2543,10 +2543,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2558,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>656</v>
+        <v>764</v>
       </c>
       <c r="N12" s="7">
-        <v>471463</v>
+        <v>527425</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2623,7 +2623,7 @@
         <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>153</v>
@@ -2744,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE93628-F509-49B0-AAB0-89CC8A42FB23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ED777B-5ECB-47DA-8ACC-CBACEB9F7B0B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2868,7 +2868,7 @@
         <v>205935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>155</v>
@@ -2919,7 +2919,7 @@
         <v>7228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>162</v>
@@ -3017,10 +3017,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D7" s="7">
-        <v>271374</v>
+        <v>246838</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>169</v>
@@ -3032,34 +3032,34 @@
         <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I7" s="7">
-        <v>261620</v>
+        <v>232676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="N7" s="7">
-        <v>532994</v>
+        <v>479514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,49 +3068,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>10255</v>
+        <v>3214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2657</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="7">
         <v>9</v>
       </c>
-      <c r="I8" s="7">
-        <v>6150</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M8" s="7">
-        <v>22</v>
-      </c>
       <c r="N8" s="7">
-        <v>16405</v>
+        <v>5871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3134,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3149,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3172,49 +3172,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D10" s="7">
-        <v>246838</v>
+        <v>271374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="I10" s="7">
-        <v>232676</v>
+        <v>261620</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="N10" s="7">
-        <v>479514</v>
+        <v>532994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,28 +3223,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>3214</v>
+        <v>10255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>2657</v>
+        <v>6150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>198</v>
@@ -3253,10 +3253,10 @@
         <v>199</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>5871</v>
+        <v>16405</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>200</v>
@@ -3274,10 +3274,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3289,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3304,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3366,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,10 +3417,10 @@
         <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966EF699-1616-4508-9F84-5DB9CBCE1E6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE44A84D-1EBD-4950-97C3-A0A932DD2082}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,13 +3763,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>473</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>397291</v>
+        <v>202403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>232</v>
@@ -3778,10 +3778,10 @@
         <v>233</v>
       </c>
       <c r="H7" s="7">
-        <v>458</v>
+        <v>274</v>
       </c>
       <c r="I7" s="7">
-        <v>348281</v>
+        <v>193343</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>234</v>
@@ -3793,19 +3793,19 @@
         <v>236</v>
       </c>
       <c r="M7" s="7">
-        <v>931</v>
+        <v>540</v>
       </c>
       <c r="N7" s="7">
-        <v>745572</v>
+        <v>395747</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3814,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>5419</v>
+        <v>2652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>239</v>
@@ -3829,10 +3829,10 @@
         <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2527</v>
+        <v>4924</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>241</v>
@@ -3844,19 +3844,19 @@
         <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>7947</v>
+        <v>7576</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3880,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3895,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3918,13 +3918,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>473</v>
       </c>
       <c r="D10" s="7">
-        <v>202403</v>
+        <v>397291</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>246</v>
@@ -3933,10 +3933,10 @@
         <v>247</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="I10" s="7">
-        <v>193343</v>
+        <v>348281</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>248</v>
@@ -3948,19 +3948,19 @@
         <v>250</v>
       </c>
       <c r="M10" s="7">
-        <v>540</v>
+        <v>931</v>
       </c>
       <c r="N10" s="7">
-        <v>395747</v>
+        <v>745572</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3969,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>2652</v>
+        <v>5419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>253</v>
@@ -3984,10 +3984,10 @@
         <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4924</v>
+        <v>2527</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>255</v>
@@ -3999,19 +3999,19 @@
         <v>257</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>7576</v>
+        <v>7947</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4035,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4050,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4115,7 +4115,7 @@
         <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4163,7 @@
         <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>273</v>

--- a/data/trans_orig/IP21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4FE15D-8D26-47D9-A1E1-9BCE235BA64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B481D-395B-4E66-8066-29E650D306EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{412D9D52-456F-45AC-8E13-2DCF803B19D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B51F453-E1ED-4B98-B0D5-17C2D038250C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="324">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,799 +68,949 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
   </si>
 </sst>
 </file>
@@ -871,7 +1021,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,39 +1117,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1051,7 +1201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1162,13 +1312,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1177,6 +1320,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1241,19 +1391,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65213A39-2D5A-41D2-9039-4AC2051223C1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B312CE-3EBA-4F4C-A2F2-61AC3492EB76}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1370,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>202175</v>
+        <v>16369</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1385,10 +1555,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>191873</v>
+        <v>17658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1400,10 +1570,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>594</v>
+        <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>394048</v>
+        <v>34026</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1421,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7">
-        <v>20986</v>
+        <v>105011</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1436,10 +1606,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I5" s="7">
-        <v>18323</v>
+        <v>88513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1451,10 +1621,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="N5" s="7">
-        <v>39309</v>
+        <v>193525</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1472,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1487,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1695,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>210702</v>
+        <v>9342</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1540,10 +1710,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>200674</v>
+        <v>3908</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1555,10 +1725,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>616</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>411376</v>
+        <v>13250</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1576,10 +1746,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="D8" s="7">
-        <v>7339</v>
+        <v>244414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1591,10 +1761,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>373</v>
       </c>
       <c r="I8" s="7">
-        <v>4548</v>
+        <v>249297</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1606,10 +1776,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>741</v>
       </c>
       <c r="N8" s="7">
-        <v>11887</v>
+        <v>493711</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1627,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1642,10 +1812,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1827,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1850,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>276670</v>
+        <v>4707</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1695,34 +1865,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>263063</v>
+        <v>1959</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6666</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>805</v>
-      </c>
-      <c r="N10" s="7">
-        <v>539733</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,49 +1901,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>4828</v>
+        <v>136808</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>188</v>
+      </c>
+      <c r="I11" s="7">
+        <v>125589</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2540</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>393</v>
+      </c>
+      <c r="N11" s="7">
+        <v>262397</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7368</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1797,10 +1967,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1812,10 +1982,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1829,55 +1999,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1037</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>689546</v>
+        <v>2736</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1887</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>978</v>
-      </c>
-      <c r="I13" s="7">
-        <v>655610</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4622</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>2015</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1345156</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,49 +2056,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D14" s="7">
-        <v>33154</v>
+        <v>203313</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>283</v>
+      </c>
+      <c r="I14" s="7">
+        <v>192210</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25411</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>589</v>
+      </c>
+      <c r="N14" s="7">
+        <v>395524</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>89</v>
-      </c>
-      <c r="N14" s="7">
-        <v>58565</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,55 +2107,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33154</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25411</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>89</v>
+      </c>
+      <c r="N16" s="7">
+        <v>58565</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1037</v>
+      </c>
+      <c r="D17" s="7">
+        <v>689546</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>978</v>
+      </c>
+      <c r="I17" s="7">
+        <v>655610</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1345156</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1998,8 +2329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0D8A0-201D-41C7-B778-8DBB8AB8D79E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621C2F8-7083-4FA0-8F46-31E8C49CB3BC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2015,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2116,49 +2447,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>221647</v>
+        <v>10614</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>207500</v>
+        <v>14387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>626</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>429148</v>
+        <v>25001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2498,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7">
-        <v>15262</v>
+        <v>133791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>18008</v>
+        <v>132374</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>388</v>
       </c>
       <c r="N5" s="7">
-        <v>33269</v>
+        <v>266165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>236909</v>
+        <v>144405</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2233,10 +2564,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2248,10 +2579,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>674</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>462417</v>
+        <v>291166</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2271,49 +2602,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>231928</v>
+        <v>13384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>222133</v>
+        <v>10960</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>454061</v>
+        <v>24343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2653,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>10063</v>
+        <v>254937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>7339</v>
+        <v>225290</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>678</v>
       </c>
       <c r="N8" s="7">
-        <v>17402</v>
+        <v>480228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268321</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2388,10 +2719,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2403,10 +2734,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="N9" s="7">
-        <v>471463</v>
+        <v>504571</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2426,49 +2757,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>388</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>263117</v>
+        <v>3887</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>253053</v>
+        <v>1343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>748</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>516171</v>
+        <v>5231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,49 +2808,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>7897</v>
+        <v>154684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>3358</v>
+        <v>155700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="N11" s="7">
-        <v>11254</v>
+        <v>310383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>271014</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2543,10 +2874,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2558,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>764</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>527425</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2575,55 +2906,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1022</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>716692</v>
+        <v>5337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>983</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>682687</v>
+        <v>2014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>2005</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>1399379</v>
+        <v>7351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +2963,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>33222</v>
+        <v>173280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>28704</v>
+        <v>169323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>61926</v>
+        <v>342603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,55 +3014,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>263</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178617</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>506</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349954</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33222</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>28704</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7">
+        <v>89</v>
+      </c>
+      <c r="N16" s="7">
+        <v>61926</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1022</v>
+      </c>
+      <c r="D17" s="7">
+        <v>716692</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="7">
+        <v>983</v>
+      </c>
+      <c r="I17" s="7">
+        <v>682687</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2005</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399379</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1069</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>749914</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1025</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>711391</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2094</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1461305</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2744,8 +3236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ED777B-5ECB-47DA-8ACC-CBACEB9F7B0B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034AEAD-7B94-4C27-B089-EC6A9C02F922}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2761,7 +3253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2862,49 +3354,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>205935</v>
+        <v>5803</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>187623</v>
+        <v>6777</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>614</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>393559</v>
+        <v>12580</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,49 +3405,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>7228</v>
+        <v>118361</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>12422</v>
+        <v>123654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>19649</v>
+        <v>242015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,10 +3456,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2979,10 +3471,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>200045</v>
+        <v>130431</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2994,10 +3486,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>645</v>
+        <v>396</v>
       </c>
       <c r="N6" s="7">
-        <v>413208</v>
+        <v>254595</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3017,49 +3509,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>358</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>246838</v>
+        <v>3269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>232676</v>
+        <v>7032</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>714</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>479514</v>
+        <v>10301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,49 +3560,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>3214</v>
+        <v>254792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>2657</v>
+        <v>203485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>696</v>
       </c>
       <c r="N8" s="7">
-        <v>5871</v>
+        <v>458277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3134,10 +3626,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3149,10 +3641,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3172,49 +3664,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>271374</v>
+        <v>5276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>261620</v>
+        <v>4067</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="M10" s="7">
-        <v>734</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>532994</v>
+        <v>9344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,49 +3715,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>10255</v>
+        <v>183296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>6150</v>
+        <v>184832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="N11" s="7">
-        <v>16405</v>
+        <v>368127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3289,10 +3781,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3304,10 +3796,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3321,55 +3813,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1036</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>724147</v>
+        <v>6349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>1026</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>681920</v>
+        <v>3352</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>2062</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>1406067</v>
+        <v>9700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,49 +3870,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>20697</v>
+        <v>167699</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>21228</v>
+        <v>169949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>468</v>
       </c>
       <c r="N14" s="7">
-        <v>41925</v>
+        <v>337648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,55 +3921,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20697</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="7">
+        <v>33</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21228</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7">
+        <v>62</v>
+      </c>
+      <c r="N16" s="7">
+        <v>41925</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1036</v>
+      </c>
+      <c r="D17" s="7">
+        <v>724147</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1026</v>
+      </c>
+      <c r="I17" s="7">
+        <v>681920</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2062</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1406067</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1059</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>703148</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1447992</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3490,8 +4143,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE44A84D-1EBD-4950-97C3-A0A932DD2082}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D252F-BD3D-4FCF-9657-42DE0C0F3D39}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3507,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3608,49 +4261,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>114242</v>
+        <v>2611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>101654</v>
+        <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
-        <v>414</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>215896</v>
+        <v>3918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,49 +4312,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>3696</v>
+        <v>55892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>1731</v>
+        <v>55644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>5427</v>
+        <v>111535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3725,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>103385</v>
+        <v>56951</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3740,10 +4393,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>221323</v>
+        <v>115453</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3763,49 +4416,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3064</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4602</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7666</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="7">
-        <v>202403</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="7">
-        <v>274</v>
-      </c>
-      <c r="I7" s="7">
-        <v>193343</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="7">
-        <v>540</v>
-      </c>
-      <c r="N7" s="7">
-        <v>395747</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,49 +4467,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="D8" s="7">
-        <v>2652</v>
+        <v>172235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="I8" s="7">
-        <v>4924</v>
+        <v>154163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>7576</v>
+        <v>326397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3880,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3895,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3918,49 +4571,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>473</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>397291</v>
+        <v>2412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>348281</v>
+        <v>1992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
-        <v>931</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>745572</v>
+        <v>4404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +4622,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>5419</v>
+        <v>200066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>2527</v>
+        <v>174121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="N11" s="7">
-        <v>7947</v>
+        <v>374187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,10 +4673,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4035,10 +4688,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4050,10 +4703,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4067,55 +4720,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>713936</v>
+        <v>3681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
-        <v>926</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>643279</v>
+        <v>1281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
-        <v>1885</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>1357215</v>
+        <v>4963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,49 +4777,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>11768</v>
+        <v>285743</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>9182</v>
+        <v>259352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>678</v>
       </c>
       <c r="N14" s="7">
-        <v>20950</v>
+        <v>545094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,55 +4828,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11768</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9182</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>20950</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>959</v>
+      </c>
+      <c r="D17" s="7">
+        <v>713936</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7">
+        <v>926</v>
+      </c>
+      <c r="I17" s="7">
+        <v>643279</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1885</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1357215</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1918</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378165</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B481D-395B-4E66-8066-29E650D306EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2FD36A-48AF-4781-AFFD-983D06EA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B51F453-E1ED-4B98-B0D5-17C2D038250C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E218B539-6517-45B9-86F7-8725F0531205}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="328">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>19,0%</t>
+    <t>18,81%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>81,0%</t>
+    <t>81,19%</t>
   </si>
   <si>
     <t>90,86%</t>
@@ -116,19 +116,19 @@
     <t>83,37%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -152,865 +152,877 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>97,95%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B312CE-3EBA-4F4C-A2F2-61AC3492EB76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F7EC3-8D57-464F-97D5-9F2035F5A219}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,7 +2029,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2026,13 +2038,13 @@
         <v>1887</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2041,13 +2053,13 @@
         <v>4622</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2074,13 @@
         <v>203313</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -2077,13 +2089,13 @@
         <v>192210</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>589</v>
@@ -2092,13 +2104,13 @@
         <v>395524</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2178,13 @@
         <v>33154</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2181,13 +2193,13 @@
         <v>25411</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2196,13 +2208,13 @@
         <v>58565</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2229,13 @@
         <v>689546</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2232,13 +2244,13 @@
         <v>655610</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -2247,13 +2259,13 @@
         <v>1345156</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2321,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621C2F8-7083-4FA0-8F46-31E8C49CB3BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D623FF-E5FC-490C-9E84-AEA3E9BE95E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2346,7 +2358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2453,13 +2465,13 @@
         <v>10614</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2468,13 +2480,13 @@
         <v>14387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2483,13 +2495,13 @@
         <v>25001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2516,13 @@
         <v>133791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -2519,13 +2531,13 @@
         <v>132374</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>388</v>
@@ -2534,13 +2546,13 @@
         <v>266165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2620,13 @@
         <v>13384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2623,13 +2635,13 @@
         <v>10960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2638,13 +2650,13 @@
         <v>24343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2671,13 @@
         <v>254937</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
@@ -2674,13 +2686,13 @@
         <v>225290</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>678</v>
@@ -2689,13 +2701,13 @@
         <v>480228</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2775,13 @@
         <v>3887</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2778,13 +2790,13 @@
         <v>1343</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2793,13 +2805,13 @@
         <v>5231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2826,13 @@
         <v>154684</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -2829,13 +2841,13 @@
         <v>155700</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -2844,7 +2856,7 @@
         <v>310383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>152</v>
@@ -2918,13 +2930,13 @@
         <v>5337</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2933,13 +2945,13 @@
         <v>2014</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2948,13 +2960,13 @@
         <v>7351</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2981,13 @@
         <v>173280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -2984,13 +2996,13 @@
         <v>169323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>495</v>
@@ -2999,13 +3011,13 @@
         <v>342603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3085,13 @@
         <v>33222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -3088,13 +3100,13 @@
         <v>28704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3103,13 +3115,13 @@
         <v>61926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3136,13 @@
         <v>716692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -3139,13 +3151,13 @@
         <v>682687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>2005</v>
@@ -3154,13 +3166,13 @@
         <v>1399379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3228,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034AEAD-7B94-4C27-B089-EC6A9C02F922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F073D0-16BA-451B-9B79-0599E6E83650}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3360,13 +3372,13 @@
         <v>5803</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3375,13 +3387,13 @@
         <v>6777</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3390,13 +3402,13 @@
         <v>12580</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,10 +3423,10 @@
         <v>118361</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>198</v>
@@ -3548,7 +3560,7 @@
         <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>212</v>
@@ -3602,7 +3614,7 @@
         <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3685,10 @@
         <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3685,13 +3697,13 @@
         <v>4067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3703,10 +3715,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,7 +3739,7 @@
         <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -3736,13 +3748,13 @@
         <v>184832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -3754,10 +3766,10 @@
         <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3858,7 @@
         <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3855,13 +3867,13 @@
         <v>9700</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3888,13 @@
         <v>167699</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -3891,13 +3903,13 @@
         <v>169949</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3906,13 +3918,13 @@
         <v>337648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3992,13 @@
         <v>20697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -3995,13 +4007,13 @@
         <v>21228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -4010,13 +4022,13 @@
         <v>41925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4043,13 @@
         <v>724147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>1026</v>
@@ -4046,13 +4058,13 @@
         <v>681920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>2062</v>
@@ -4061,13 +4073,13 @@
         <v>1406067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,7 +4135,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6D252F-BD3D-4FCF-9657-42DE0C0F3D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A852C2F-895C-4F24-A570-BAEE556A42B7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4160,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4267,13 +4279,13 @@
         <v>2611</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4282,13 +4294,13 @@
         <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4297,13 +4309,13 @@
         <v>3918</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>55892</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
@@ -4354,7 +4366,7 @@
         <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4440,7 @@
         <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4437,10 +4449,10 @@
         <v>4602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>281</v>
@@ -4452,13 +4464,13 @@
         <v>7666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4485,10 @@
         <v>172235</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>285</v>
@@ -4488,13 +4500,13 @@
         <v>154163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
@@ -4506,10 +4518,10 @@
         <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4589,13 @@
         <v>2412</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4592,13 +4604,13 @@
         <v>1992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4607,13 +4619,13 @@
         <v>4404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4640,13 @@
         <v>200066</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>230</v>
@@ -4643,13 +4655,13 @@
         <v>174121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>470</v>
@@ -4658,13 +4670,13 @@
         <v>374187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,10 +4747,10 @@
         <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4747,13 +4759,13 @@
         <v>1281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4762,10 +4774,10 @@
         <v>4963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>304</v>
@@ -4789,7 +4801,7 @@
         <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4798,13 +4810,13 @@
         <v>259352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -4813,13 +4825,13 @@
         <v>545094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,10 +4902,10 @@
         <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4902,13 +4914,13 @@
         <v>9182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4917,13 +4929,13 @@
         <v>20950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4950,13 @@
         <v>713936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -4953,13 +4965,13 @@
         <v>643279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>1885</v>
@@ -4968,13 +4980,13 @@
         <v>1357215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +5042,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2FD36A-48AF-4781-AFFD-983D06EA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB9D9A0-B8F0-43B2-BE2D-5D5773B9901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E218B539-6517-45B9-86F7-8725F0531205}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DAC8ED2F-8A3C-42D4-91C5-AEF1230A0189}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,892 +137,934 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F7EC3-8D57-464F-97D5-9F2035F5A219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414024F-E59C-48DE-B405-D8FDACFD83A9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1552,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>16369</v>
+        <v>17658</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1567,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>17658</v>
+        <v>16369</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1603,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>105011</v>
+        <v>88513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1618,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>88513</v>
+        <v>105011</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1654,25 +1696,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1707,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>9342</v>
+        <v>3908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1722,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>3908</v>
+        <v>9342</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1758,10 +1800,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D8" s="7">
-        <v>244414</v>
+        <v>249297</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1773,10 +1815,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I8" s="7">
-        <v>249297</v>
+        <v>244414</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1809,25 +1851,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1862,28 +1904,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1959</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4707</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1959</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>54</v>
@@ -1913,28 +1955,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>188</v>
+      </c>
+      <c r="D11" s="7">
+        <v>125589</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>205</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>136808</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>188</v>
-      </c>
-      <c r="I11" s="7">
-        <v>125589</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
@@ -1964,25 +2006,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2017,10 +2059,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2736</v>
+        <v>1887</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2029,22 +2071,22 @@
         <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1887</v>
+        <v>2736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2053,13 +2095,13 @@
         <v>4622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,34 +2110,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>283</v>
+      </c>
+      <c r="D14" s="7">
+        <v>192210</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>306</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>203313</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>283</v>
-      </c>
-      <c r="I14" s="7">
-        <v>192210</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>589</v>
@@ -2104,13 +2146,13 @@
         <v>395524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,25 +2161,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2172,34 +2214,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25411</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>49</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33154</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25411</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2208,13 +2250,13 @@
         <v>58565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,34 +2265,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>978</v>
+      </c>
+      <c r="D17" s="7">
+        <v>655610</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>1037</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>689546</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>978</v>
-      </c>
-      <c r="I17" s="7">
-        <v>655610</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -2259,13 +2301,13 @@
         <v>1345156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,25 +2316,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2321,7 +2363,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D623FF-E5FC-490C-9E84-AEA3E9BE95E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163894B2-7C37-4E87-9D9A-FE305C616B7A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2358,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2459,34 +2501,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14387</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>10614</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14387</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2495,13 +2537,13 @@
         <v>25001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,34 +2552,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>198</v>
+      </c>
+      <c r="D5" s="7">
+        <v>132374</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
         <v>190</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>133791</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="7">
-        <v>198</v>
-      </c>
-      <c r="I5" s="7">
-        <v>132374</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>388</v>
@@ -2546,13 +2588,13 @@
         <v>266165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,25 +2603,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144405</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2614,34 +2656,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10960</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>19</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>13384</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10960</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2650,13 +2692,13 @@
         <v>24343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,34 +2707,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>324</v>
+      </c>
+      <c r="D8" s="7">
+        <v>225290</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="7">
         <v>354</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>254937</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="7">
-        <v>324</v>
-      </c>
-      <c r="I8" s="7">
-        <v>225290</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>678</v>
@@ -2701,13 +2743,13 @@
         <v>480228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,25 +2758,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268321</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2769,34 +2811,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3887</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1343</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2805,13 +2847,13 @@
         <v>5231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,34 +2862,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>221</v>
+      </c>
+      <c r="D11" s="7">
+        <v>155700</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7">
         <v>223</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>154684</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="7">
-        <v>221</v>
-      </c>
-      <c r="I11" s="7">
-        <v>155700</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -2856,13 +2898,13 @@
         <v>310383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,25 +2913,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2924,34 +2966,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5337</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2014</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2960,13 +3002,13 @@
         <v>7351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,34 +3017,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>240</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169323</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
         <v>255</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173280</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169323</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>495</v>
@@ -3011,13 +3053,13 @@
         <v>342603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,25 +3068,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>178617</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3079,34 +3121,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28704</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
         <v>47</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33222</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28704</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3115,13 +3157,13 @@
         <v>61926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,34 +3172,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>983</v>
+      </c>
+      <c r="D17" s="7">
+        <v>682687</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
         <v>1022</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>716692</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="7">
-        <v>983</v>
-      </c>
-      <c r="I17" s="7">
-        <v>682687</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>2005</v>
@@ -3166,13 +3208,13 @@
         <v>1399379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,25 +3223,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D18" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1069</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>749914</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3228,7 +3270,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3248,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F073D0-16BA-451B-9B79-0599E6E83650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A850610-8751-4D40-89EE-69524FC0B9C1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3265,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3366,34 +3408,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6777</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>5803</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6777</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3402,13 +3444,13 @@
         <v>12580</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,34 +3459,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>198</v>
+      </c>
+      <c r="D5" s="7">
+        <v>123654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7">
         <v>178</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>118361</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="7">
-        <v>198</v>
-      </c>
-      <c r="I5" s="7">
-        <v>123654</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -3453,13 +3495,13 @@
         <v>242015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,25 +3510,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>209</v>
+      </c>
+      <c r="D6" s="7">
+        <v>130431</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>209</v>
-      </c>
-      <c r="I6" s="7">
-        <v>130431</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3521,34 +3563,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7032</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3269</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7032</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3557,13 +3599,13 @@
         <v>10301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,34 +3614,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>321</v>
+      </c>
+      <c r="D8" s="7">
+        <v>203485</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="7">
         <v>375</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>254792</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="7">
-        <v>321</v>
-      </c>
-      <c r="I8" s="7">
-        <v>203485</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -3608,13 +3650,13 @@
         <v>458277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,25 +3665,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3676,34 +3718,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4067</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5276</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4067</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3715,10 +3757,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,34 +3769,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>266</v>
+      </c>
+      <c r="D11" s="7">
+        <v>184832</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="7">
         <v>256</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>183296</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7">
-        <v>266</v>
-      </c>
-      <c r="I11" s="7">
-        <v>184832</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -3766,10 +3808,10 @@
         <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,25 +3820,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3831,34 +3873,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3352</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6349</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3352</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3867,13 +3909,13 @@
         <v>9700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,34 +3924,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>241</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169949</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="7">
         <v>227</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>167699</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="7">
-        <v>241</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169949</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3918,13 +3960,13 @@
         <v>337648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,25 +3975,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3986,34 +4028,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21228</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="7">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20697</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21228</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -4022,13 +4064,13 @@
         <v>41925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4079,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1026</v>
+      </c>
+      <c r="D17" s="7">
+        <v>681920</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="7">
         <v>1036</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>724147</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1026</v>
-      </c>
-      <c r="I17" s="7">
-        <v>681920</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>2062</v>
@@ -4073,13 +4115,13 @@
         <v>1406067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,25 +4130,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D18" s="7">
+        <v>703148</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703148</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4135,7 +4177,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4155,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A852C2F-895C-4F24-A570-BAEE556A42B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6D4793-5395-49CC-A074-0ABDD0212232}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4172,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4273,49 +4315,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
-        <v>2611</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
       <c r="I4" s="7">
-        <v>1307</v>
+        <v>2701</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>4064</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55732</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="7">
         <v>111</v>
       </c>
-      <c r="D5" s="7">
-        <v>55892</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H5" s="7">
-        <v>105</v>
-      </c>
       <c r="I5" s="7">
-        <v>55644</v>
+        <v>58743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>111535</v>
+        <v>114475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,25 +4417,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57095</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
       <c r="I6" s="7">
-        <v>56951</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4408,7 +4450,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115453</v>
+        <v>118539</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4428,49 +4470,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4535</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>3064</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
       <c r="I7" s="7">
-        <v>4602</v>
+        <v>3209</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>7666</v>
+        <v>7744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,49 +4521,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>251</v>
+      </c>
+      <c r="D8" s="7">
+        <v>154764</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="7">
         <v>270</v>
       </c>
-      <c r="D8" s="7">
-        <v>172235</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="7">
-        <v>251</v>
-      </c>
       <c r="I8" s="7">
-        <v>154163</v>
+        <v>179345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>326397</v>
+        <v>334109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,25 +4572,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4563,7 +4605,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4586,46 +4628,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2412</v>
+        <v>2058</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1992</v>
+        <v>2776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4404</v>
+        <v>4834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,49 +4676,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>230</v>
+      </c>
+      <c r="D11" s="7">
+        <v>171014</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="7">
         <v>240</v>
       </c>
-      <c r="D11" s="7">
-        <v>200066</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H11" s="7">
-        <v>230</v>
-      </c>
       <c r="I11" s="7">
-        <v>174121</v>
+        <v>209714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>470</v>
       </c>
       <c r="N11" s="7">
-        <v>374187</v>
+        <v>380729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,25 +4727,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4718,7 +4760,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4738,49 +4780,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1258</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>3681</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
       <c r="I13" s="7">
-        <v>1281</v>
+        <v>3775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>4963</v>
+        <v>5033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>340</v>
+      </c>
+      <c r="D14" s="7">
+        <v>274200</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="7">
         <v>338</v>
       </c>
-      <c r="D14" s="7">
-        <v>285743</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H14" s="7">
-        <v>340</v>
-      </c>
       <c r="I14" s="7">
-        <v>259352</v>
+        <v>301708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
       </c>
       <c r="N14" s="7">
-        <v>545094</v>
+        <v>575907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4885,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4858,7 +4900,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4873,7 +4915,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4893,49 +4935,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9215</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" s="7">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
       <c r="I16" s="7">
-        <v>9182</v>
+        <v>12461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>20950</v>
+        <v>21675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +4986,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>926</v>
+      </c>
+      <c r="D17" s="7">
+        <v>655709</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H17" s="7">
         <v>959</v>
       </c>
-      <c r="D17" s="7">
-        <v>713936</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="7">
-        <v>926</v>
-      </c>
       <c r="I17" s="7">
-        <v>643279</v>
+        <v>749511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>1885</v>
       </c>
       <c r="N17" s="7">
-        <v>1357215</v>
+        <v>1405221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,25 +5037,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664924</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>652461</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5028,7 +5070,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1378165</v>
+        <v>1426896</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5042,7 +5084,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
